--- a/job/单子明细.xlsx
+++ b/job/单子明细.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\github\note\job\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB192C4D-950E-4BC4-8A2D-520CCF902D6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>项目</t>
   </si>
@@ -150,19 +156,37 @@
   </si>
   <si>
     <t>问卷调查系统</t>
+  </si>
+  <si>
+    <t>品牌营销数据爬虫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习锂电池分析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中（合作商）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,35 +207,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,305 +215,33 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -525,255 +249,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,68 +268,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1102,38 +547,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.7272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.8181818181818" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="28" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.4545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.9090909090909" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6363636363636" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.4545454545455" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.0909090909091" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.2727272727273" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7272727272727" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.8181818181818" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.2727272727273" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.2727272727273" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="30.7272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="2" customWidth="1"/>
+    <col min="14" max="18" width="8.75"/>
+    <col min="19" max="19" width="15.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="30.75" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="30.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:13">
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1529,54 +976,131 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="4">
-        <v>45762</v>
+        <v>45754</v>
       </c>
       <c r="E11" s="2">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="F11" s="2">
-        <v>900</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>1500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
       </c>
       <c r="H11" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I11" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="2">
+        <v>300</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45762</v>
+      </c>
+      <c r="E12" s="2">
+        <v>900</v>
+      </c>
+      <c r="F12" s="2">
+        <v>900</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2">
         <v>540</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45762</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F13" s="2">
+        <v>800</v>
+      </c>
+      <c r="G13" s="2">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>200</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:N11">
-    <sortCondition ref="D2"/>
+  <sortState ref="A2:M13">
+    <sortCondition ref="D2:D13"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="management-r18"/>
-    <hyperlink ref="C3" r:id="rId2" display="photography-reservation"/>
-    <hyperlink ref="C2" r:id="rId3" display="mini-program-original"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/job/单子明细.xlsx
+++ b/job/单子明细.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\github\note\job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB192C4D-950E-4BC4-8A2D-520CCF902D6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4779326-FBD9-4723-8B32-EDDE9B72C40B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>项目</t>
   </si>
@@ -116,9 +116,6 @@
     <t>闲鱼</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>坪上天麻购物网站（论文）</t>
   </si>
   <si>
@@ -179,6 +176,46 @@
   </si>
   <si>
     <t>进行中（合作商）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中（3/31待教师指导修改论文）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成，待验收</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在修改中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯代码讲解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring + vue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待收30，待讲解完收100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪动物领养后端设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待重新设计数据库表，月底要系统</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +269,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,15 +319,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,10 +352,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -573,14 +680,14 @@
     <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.375" style="2" customWidth="1"/>
     <col min="14" max="18" width="8.75"/>
     <col min="19" max="19" width="15.25" style="2" customWidth="1"/>
     <col min="20" max="20" width="30.75" style="2" customWidth="1"/>
     <col min="21" max="16384" width="30.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,48 +728,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>45717</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>800</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>800</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6">
         <v>400</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -703,133 +815,147 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
         <v>45736</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>800</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6">
         <v>400</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>45741</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>600</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>600</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>600</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <v>100</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="6">
+        <v>500</v>
+      </c>
+      <c r="K5" s="6">
         <v>600</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="14">
+        <v>45741</v>
+      </c>
+      <c r="E6" s="13">
+        <v>600</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>600</v>
+      </c>
+      <c r="H6" s="13">
+        <v>600</v>
+      </c>
+      <c r="I6" s="13">
+        <v>200</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="13">
+        <v>600</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4">
-        <v>45741</v>
-      </c>
-      <c r="E6" s="2">
-        <v>600</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>600</v>
-      </c>
-      <c r="H6" s="2">
-        <v>600</v>
-      </c>
-      <c r="I6" s="2">
-        <v>100</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2">
-        <v>600</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="4">
         <v>45741</v>
@@ -858,31 +984,31 @@
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="E8" s="2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="2">
         <v>900</v>
       </c>
       <c r="G8" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H8" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2">
         <v>200</v>
@@ -891,132 +1017,137 @@
         <v>28</v>
       </c>
       <c r="K8" s="2">
-        <v>590</v>
+        <v>450</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="E9" s="2">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="2">
         <v>900</v>
       </c>
       <c r="G9" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H9" s="2">
-        <v>130</v>
-      </c>
-      <c r="I9" s="2">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K9" s="2">
         <v>450</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="E10" s="2">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F10" s="2">
         <v>900</v>
       </c>
       <c r="G10" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>140</v>
+      </c>
+      <c r="I10" s="2">
+        <v>200</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45754</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1700</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="9">
+        <v>200</v>
+      </c>
+      <c r="H11" s="9">
+        <v>300</v>
+      </c>
+      <c r="I11" s="9">
+        <v>400</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="9">
+        <v>300</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45754</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1700</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="2">
-        <v>200</v>
-      </c>
-      <c r="H11" s="2">
-        <v>300</v>
-      </c>
-      <c r="I11" s="2">
-        <v>400</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2">
-        <v>300</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1049,46 +1180,113 @@
         <v>29</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="14">
+        <v>45762</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F13" s="13">
+        <v>800</v>
+      </c>
+      <c r="G13" s="13">
+        <v>500</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>200</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4">
-        <v>45762</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F13" s="2">
-        <v>800</v>
-      </c>
-      <c r="G13" s="2">
-        <v>500</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="M13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="14">
+        <v>45777</v>
+      </c>
+      <c r="E14" s="13">
+        <v>130</v>
+      </c>
+      <c r="K14" s="13">
+        <v>130</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45748</v>
+      </c>
+      <c r="E15" s="13">
+        <v>700</v>
+      </c>
+      <c r="I15" s="13">
         <v>200</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="2">
-        <v>1200</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="K15" s="13">
+        <v>700</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A2:M13">

--- a/job/单子明细.xlsx
+++ b/job/单子明细.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\github\note\job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4779326-FBD9-4723-8B32-EDDE9B72C40B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FFA9BA-1A15-46B8-8E88-7BEF91D724DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>项目</t>
   </si>
@@ -216,6 +216,22 @@
   </si>
   <si>
     <t>待重新设计数据库表，月底要系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI视频生成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>python + react</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>就业管理系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期报告待写</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1288,6 +1304,40 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
+    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14">
+        <v>45757</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1088</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1088</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:M13">
     <sortCondition ref="D2:D13"/>
